--- a/units/5_island_biogeo/analysis/arboreal_arthropods.xlsx
+++ b/units/5_island_biogeo/analysis/arboreal_arthropods.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28502"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goby/Documents/teach/438/units/5_island_biogeo/analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14000" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14000" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -33,9 +41,6 @@
     <t>species</t>
   </si>
   <si>
-    <t>special species</t>
-  </si>
-  <si>
     <t>CR1</t>
   </si>
   <si>
@@ -64,6 +69,9 @@
   </si>
   <si>
     <t>Data from Simberloff, 1976, Ecology 57: 629-648</t>
+  </si>
+  <si>
+    <t>special_species</t>
   </si>
 </sst>
 </file>
@@ -164,6 +172,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -491,13 +504,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -511,12 +522,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>1969</v>
@@ -531,12 +542,12 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>1970</v>
@@ -551,9 +562,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1971</v>
@@ -568,9 +579,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1969</v>
@@ -585,9 +596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1970</v>
@@ -602,9 +613,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>1971</v>
@@ -619,9 +630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>1969</v>
@@ -636,9 +647,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>1970</v>
@@ -653,9 +664,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>1971</v>
@@ -670,9 +681,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>1969</v>
@@ -687,9 +698,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1970</v>
@@ -704,9 +715,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1969</v>
@@ -721,9 +732,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>1970</v>
@@ -738,9 +749,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>1971</v>
@@ -755,9 +766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>1969</v>
@@ -772,9 +783,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>1970</v>
@@ -789,9 +800,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>1971</v>
@@ -806,9 +817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>1969</v>
@@ -823,9 +834,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>1970</v>
@@ -840,9 +851,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>1969</v>
@@ -857,9 +868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>1970</v>
@@ -874,9 +885,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>1969</v>
@@ -891,9 +902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>1970</v>
@@ -908,9 +919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1971</v>
@@ -928,10 +939,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>